--- a/data/Behavioral/description/GFTA.xlsx
+++ b/data/Behavioral/description/GFTA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_09142017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Research/Healthy Brain Network/Data Sharing/Release4/Data Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Value Labels</t>
   </si>
   <si>
-    <t>Scores</t>
-  </si>
-  <si>
     <t>Goldman-Fristoe Test of Articulation (GFTA)</t>
   </si>
   <si>
@@ -83,21 +80,6 @@
     <t>GFTA_SIW_Perc</t>
   </si>
   <si>
-    <t>GFTA_2_Complete</t>
-  </si>
-  <si>
-    <t>GFTA_2_Reason</t>
-  </si>
-  <si>
-    <t>GFTA_2_Valid</t>
-  </si>
-  <si>
-    <t>GFTA_2_Invalid</t>
-  </si>
-  <si>
-    <t>GFTA_valid_possible</t>
-  </si>
-  <si>
     <t>GFTA_SIS_Raw</t>
   </si>
   <si>
@@ -107,18 +89,6 @@
     <t>GFTA_SIS_Perc</t>
   </si>
   <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>incomplete_reason</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
     <t>Numeric</t>
   </si>
   <si>
@@ -144,6 +114,33 @@
   </si>
   <si>
     <t>*Note: GFTA part 2 (sounds-in-sentences) is only administered to participants receiving an additional speech/language evaluation</t>
+  </si>
+  <si>
+    <t>GFTA_SIW_Complete</t>
+  </si>
+  <si>
+    <t>GFTA_SIW_Incomplete_Reason</t>
+  </si>
+  <si>
+    <t>GFTA_SIW_Valid</t>
+  </si>
+  <si>
+    <t>GFTA_SIW_Invalid_Reason</t>
+  </si>
+  <si>
+    <t>GFTA_SIS_Complete</t>
+  </si>
+  <si>
+    <t>GFTA_SIS_Incomplete_Reason</t>
+  </si>
+  <si>
+    <t>GFTA_SIS_Valid</t>
+  </si>
+  <si>
+    <t>GFTA_SIS_Invalid_Reason</t>
+  </si>
+  <si>
+    <t>GFTA_SIS_Valid_Possible</t>
   </si>
 </sst>
 </file>
@@ -212,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -238,15 +235,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -261,7 +249,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -274,7 +262,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
@@ -622,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3"/>
     </row>
@@ -657,36 +644,36 @@
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -694,133 +681,139 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -830,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -838,10 +831,10 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,21 +842,10 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
